--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.933742954019401</v>
+        <v>63.933742970996242</v>
       </c>
       <c r="C2">
-        <v>66.436368861774341</v>
+        <v>66.436368845833925</v>
       </c>
       <c r="D2">
-        <v>54.874819168836105</v>
+        <v>54.874819132932558</v>
       </c>
       <c r="E2">
-        <v>71.215854059546359</v>
+        <v>71.215854042206132</v>
       </c>
       <c r="F2">
-        <v>44.09284814040123</v>
+        <v>44.092848128381171</v>
       </c>
       <c r="G2">
-        <v>56.029291301533796</v>
+        <v>56.029291293559901</v>
       </c>
       <c r="H2">
-        <v>48.116795600400884</v>
+        <v>48.116795583299925</v>
       </c>
       <c r="I2">
-        <v>57.851572911444606</v>
+        <v>57.851572910271969</v>
       </c>
       <c r="J2">
-        <v>68.259114691307474</v>
+        <v>68.259114652653039</v>
       </c>
       <c r="K2">
-        <v>54.202309039032393</v>
+        <v>54.202309031398826</v>
       </c>
       <c r="L2">
-        <v>52.635558520840007</v>
+        <v>52.635558504038308</v>
       </c>
       <c r="M2">
-        <v>65.224333166699068</v>
+        <v>65.224333170236363</v>
       </c>
       <c r="N2">
-        <v>60.756100795643839</v>
+        <v>60.756100785797955</v>
       </c>
       <c r="O2">
-        <v>48.282181370234944</v>
+        <v>48.282181340544462</v>
       </c>
       <c r="P2">
-        <v>57.399789063857298</v>
+        <v>57.399789075367913</v>
       </c>
       <c r="Q2">
-        <v>60.664973722690831</v>
+        <v>60.664973704884225</v>
       </c>
       <c r="R2">
-        <v>53.842668235828633</v>
+        <v>53.842668214240142</v>
       </c>
       <c r="S2">
-        <v>81.274192673136525</v>
+        <v>81.27419267680051</v>
       </c>
       <c r="T2">
-        <v>62.817668408857081</v>
+        <v>62.817668421112295</v>
       </c>
       <c r="U2">
-        <v>58.107826696075037</v>
+        <v>58.107826675214511</v>
       </c>
       <c r="V2">
-        <v>49.423938830958278</v>
+        <v>49.423938811909025</v>
       </c>
       <c r="W2">
-        <v>44.597899118896272</v>
+        <v>44.597899076626611</v>
       </c>
       <c r="X2">
-        <v>56.156925030003038</v>
+        <v>56.15692500918987</v>
       </c>
       <c r="Y2">
-        <v>60.41545210006462</v>
+        <v>60.415452076948156</v>
       </c>
       <c r="Z2">
-        <v>58.451208175426871</v>
+        <v>58.451208159870376</v>
       </c>
       <c r="AA2">
-        <v>75.857735083625869</v>
+        <v>75.857734937744738</v>
       </c>
       <c r="AB2">
-        <v>76.860241411913748</v>
+        <v>76.860241362387356</v>
       </c>
       <c r="AC2">
-        <v>50.942970661480906</v>
+        <v>50.942970623534833</v>
       </c>
       <c r="AD2">
-        <v>78.615305557076439</v>
+        <v>78.615305499050407</v>
       </c>
       <c r="AE2">
-        <v>51.156706547190588</v>
+        <v>51.156706541659304</v>
       </c>
       <c r="AF2">
-        <v>58.691901864023798</v>
+        <v>58.691901835560259</v>
       </c>
       <c r="AG2">
-        <v>52.997054264441822</v>
+        <v>52.997054196207074</v>
       </c>
       <c r="AH2">
-        <v>60.780191062294335</v>
+        <v>60.780191033641344</v>
       </c>
       <c r="AI2">
-        <v>77.937152808474366</v>
+        <v>77.937152754536129</v>
       </c>
       <c r="AJ2">
-        <v>54.442762039918144</v>
+        <v>54.442762004722432</v>
       </c>
       <c r="AK2">
-        <v>59.640732491255584</v>
+        <v>59.640732470082177</v>
       </c>
       <c r="AL2">
-        <v>69.942656673563732</v>
+        <v>69.942656638451467</v>
       </c>
       <c r="AM2">
-        <v>62.786754117441745</v>
+        <v>62.786754089003175</v>
       </c>
       <c r="AN2">
-        <v>51.396987608538986</v>
+        <v>51.396987585438829</v>
       </c>
       <c r="AO2">
-        <v>64.681694011306476</v>
+        <v>64.681693953785313</v>
       </c>
       <c r="AP2">
-        <v>65.398683755593552</v>
+        <v>65.398683726613356</v>
       </c>
       <c r="AQ2">
-        <v>56.412131453396974</v>
+        <v>56.412131397130395</v>
       </c>
       <c r="AR2">
-        <v>82.116167791165651</v>
+        <v>82.116167784791756</v>
       </c>
       <c r="AS2">
-        <v>70.646222266191458</v>
+        <v>70.646222184809744</v>
       </c>
       <c r="AT2">
-        <v>66.75338904017579</v>
+        <v>66.753389013883492</v>
       </c>
       <c r="AU2">
-        <v>56.489540906223723</v>
+        <v>56.489540901229219</v>
       </c>
       <c r="AV2">
-        <v>57.850377226829949</v>
+        <v>57.850377121195052</v>
       </c>
       <c r="AW2">
-        <v>55.057332708235386</v>
+        <v>55.057332691668826</v>
       </c>
       <c r="AX2">
-        <v>68.333911378611191</v>
+        <v>68.333911340235389</v>
       </c>
       <c r="AY2">
-        <v>66.664751862164749</v>
+        <v>66.664751833136648</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.626194237344535</v>
+        <v>67.626194217110012</v>
       </c>
       <c r="C3">
-        <v>60.879684426207668</v>
+        <v>60.879684412356873</v>
       </c>
       <c r="D3">
-        <v>57.710266735240296</v>
+        <v>57.710266711611816</v>
       </c>
       <c r="E3">
-        <v>65.606981035663068</v>
+        <v>65.606981035934623</v>
       </c>
       <c r="F3">
-        <v>42.399329982397035</v>
+        <v>42.399329956467639</v>
       </c>
       <c r="G3">
-        <v>60.412136064744637</v>
+        <v>60.412136048672508</v>
       </c>
       <c r="H3">
-        <v>44.371773152386716</v>
+        <v>44.371773139167225</v>
       </c>
       <c r="I3">
-        <v>61.292795363042295</v>
+        <v>61.292795352651112</v>
       </c>
       <c r="J3">
-        <v>73.637041608688818</v>
+        <v>73.637041566520622</v>
       </c>
       <c r="K3">
-        <v>65.772908709576754</v>
+        <v>65.772908688204154</v>
       </c>
       <c r="L3">
-        <v>57.530300649644424</v>
+        <v>57.530300621807264</v>
       </c>
       <c r="M3">
-        <v>66.699159791300204</v>
+        <v>66.699156422661488</v>
       </c>
       <c r="N3">
-        <v>61.950761817486651</v>
+        <v>61.950761800214487</v>
       </c>
       <c r="O3">
-        <v>38.804333481469236</v>
+        <v>38.8043334674745</v>
       </c>
       <c r="P3">
-        <v>62.179181527540713</v>
+        <v>62.179181499015669</v>
       </c>
       <c r="Q3">
-        <v>54.187369115574072</v>
+        <v>54.187369095618294</v>
       </c>
       <c r="R3">
-        <v>47.089273991315991</v>
+        <v>47.089273951062118</v>
       </c>
       <c r="S3">
-        <v>73.16835637744478</v>
+        <v>73.168356374627493</v>
       </c>
       <c r="T3">
-        <v>63.264493375508238</v>
+        <v>63.26449335703078</v>
       </c>
       <c r="U3">
-        <v>61.349552451775203</v>
+        <v>61.349552442453913</v>
       </c>
       <c r="V3">
-        <v>53.435030176441359</v>
+        <v>53.435030164707825</v>
       </c>
       <c r="W3">
-        <v>48.185585858787093</v>
+        <v>48.185585823866049</v>
       </c>
       <c r="X3">
-        <v>49.850856295612239</v>
+        <v>49.850856279069596</v>
       </c>
       <c r="Y3">
-        <v>69.073816805719346</v>
+        <v>69.073816774153201</v>
       </c>
       <c r="Z3">
-        <v>64.452008141498851</v>
+        <v>64.452008126664253</v>
       </c>
       <c r="AA3">
-        <v>74.646890672164091</v>
+        <v>74.646890694398252</v>
       </c>
       <c r="AB3">
-        <v>71.453920840906051</v>
+        <v>71.453920806003907</v>
       </c>
       <c r="AC3">
-        <v>59.086160394216357</v>
+        <v>59.086160391312802</v>
       </c>
       <c r="AD3">
-        <v>77.468620999083001</v>
+        <v>77.468620940450222</v>
       </c>
       <c r="AE3">
-        <v>53.491137670569117</v>
+        <v>53.491137653360148</v>
       </c>
       <c r="AF3">
-        <v>63.768425532995252</v>
+        <v>63.768425503612065</v>
       </c>
       <c r="AG3">
-        <v>54.264773868190296</v>
+        <v>54.26477386480304</v>
       </c>
       <c r="AH3">
-        <v>71.061116699658584</v>
+        <v>71.061116641056572</v>
       </c>
       <c r="AI3">
-        <v>95.52267461957851</v>
+        <v>95.522674559302587</v>
       </c>
       <c r="AJ3">
-        <v>63.092969268365238</v>
+        <v>63.092969240766195</v>
       </c>
       <c r="AK3">
-        <v>67.46695471829554</v>
+        <v>67.466954699354531</v>
       </c>
       <c r="AL3">
-        <v>68.435016190774675</v>
+        <v>68.435016168014641</v>
       </c>
       <c r="AM3">
-        <v>71.20411371425908</v>
+        <v>71.204113636332352</v>
       </c>
       <c r="AN3">
-        <v>46.081908867552023</v>
+        <v>46.081908829008952</v>
       </c>
       <c r="AO3">
-        <v>70.74519988195334</v>
+        <v>70.745199851720272</v>
       </c>
       <c r="AP3">
-        <v>56.147826661183565</v>
+        <v>56.14782661786429</v>
       </c>
       <c r="AQ3">
-        <v>52.917459355777453</v>
+        <v>52.917459326106879</v>
       </c>
       <c r="AR3">
-        <v>83.586959734168971</v>
+        <v>83.586959727249905</v>
       </c>
       <c r="AS3">
-        <v>62.331549853908847</v>
+        <v>62.331549785199414</v>
       </c>
       <c r="AT3">
-        <v>64.8923300347344</v>
+        <v>64.892329979017916</v>
       </c>
       <c r="AU3">
-        <v>54.395460182371721</v>
+        <v>54.395460143109865</v>
       </c>
       <c r="AV3">
-        <v>52.307925701495634</v>
+        <v>52.307925610336376</v>
       </c>
       <c r="AW3">
-        <v>57.679756224858494</v>
+        <v>57.679756160760505</v>
       </c>
       <c r="AX3">
-        <v>60.09848394612731</v>
+        <v>60.098483897958978</v>
       </c>
       <c r="AY3">
-        <v>74.254665195689242</v>
+        <v>74.254665185821253</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>63.933742970996242</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>66.436368845833925</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>54.874819132932558</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>71.215854042206132</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.092848128381171</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>56.029291293559901</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>48.116795583299925</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>57.851572910271969</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>68.259114652653039</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>54.202309031398826</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>52.635558504038308</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.224333170236363</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>60.756100785797955</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>48.282181340544462</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.399789075367913</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>60.664973704884225</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>53.842668214240142</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>81.27419267680051</v>
+        <v>73.645726236389734</v>
       </c>
       <c r="T2">
         <v>62.817668421112295</v>
@@ -588,55 +477,55 @@
         <v>58.451208159870376</v>
       </c>
       <c r="AA2">
-        <v>75.857734937744738</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>76.860241362387356</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>50.942970623534833</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>78.615305499050407</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>51.156706541659304</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>58.691901835560259</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>52.997054196207074</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>60.780191033641344</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>77.937152754536129</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>54.442762004722432</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>59.640732470082177</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>69.942656638451467</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>62.786754089003175</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>51.396987585438829</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>64.681693953785313</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>65.398683726613356</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>56.412131397130395</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>82.116167784791756</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>67.626194217110012</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>60.879684412356873</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>57.710266711611816</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>65.606981035934623</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>42.399329956467639</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60.412136048672508</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>44.371773139167225</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>61.292795352651112</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>73.637041566520622</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>65.772908688204154</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.530300621807264</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>66.699156422661488</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>61.950761800214487</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>38.8043334674745</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>62.179181499015669</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>54.187369095618294</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>47.089273951062118</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>73.168356374627493</v>
@@ -743,55 +629,55 @@
         <v>64.452008126664253</v>
       </c>
       <c r="AA3">
-        <v>74.646890694398252</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>71.453920806003907</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>59.086160391312802</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>77.468620940450222</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>53.491137653360148</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>63.768425503612065</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>54.26477386480304</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>71.061116641056572</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>95.522674559302587</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>63.092969240766195</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>67.466954699354531</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>68.435016168014641</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>71.204113636332352</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>46.081908829008952</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>70.745199851720272</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>56.14782661786429</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>52.917459326106879</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>83.586959727249905</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.933742954019401</v>
+        <v>48.282181340544462</v>
       </c>
       <c r="C2">
-        <v>63.994032114875758</v>
+        <v>53.842668214240142</v>
       </c>
       <c r="D2">
-        <v>54.874819168836105</v>
+        <v>51.396987585438829</v>
       </c>
       <c r="E2">
-        <v>71.215854059546359</v>
+        <v>56.412131397130395</v>
       </c>
       <c r="F2">
         <v>44.09284814040123</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.626194237344535</v>
+        <v>44.044568128126528</v>
       </c>
       <c r="C3">
-        <v>60.879684426207668</v>
+        <v>47.089273951062118</v>
       </c>
       <c r="D3">
-        <v>57.710266735240296</v>
+        <v>47.21481631296556</v>
       </c>
       <c r="E3">
-        <v>65.606981035663068</v>
+        <v>54.032820673687041</v>
       </c>
       <c r="F3">
         <v>42.399329982397035</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.933742954019401</v>
+        <v>59.895130354105632</v>
       </c>
       <c r="C2">
-        <v>63.994032114875758</v>
+        <v>48.282181340544462</v>
       </c>
       <c r="D2">
-        <v>54.874819168836105</v>
+        <v>62.786754089003175</v>
       </c>
       <c r="E2">
-        <v>71.215854059546359</v>
+        <v>51.396987585438829</v>
       </c>
       <c r="F2">
         <v>44.09284814040123</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.626194237344535</v>
+        <v>61.950761800214487</v>
       </c>
       <c r="C3">
-        <v>60.879684426207668</v>
+        <v>44.044568128126528</v>
       </c>
       <c r="D3">
-        <v>57.710266735240296</v>
+        <v>71.204113636332352</v>
       </c>
       <c r="E3">
-        <v>71.325799261087909</v>
+        <v>47.21481631296556</v>
       </c>
       <c r="F3">
         <v>42.399329982397035</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>63.933742970996242</v>
+      </c>
+      <c r="C2">
+        <v>63.994032100029294</v>
+      </c>
+      <c r="D2">
+        <v>54.874819132932558</v>
+      </c>
+      <c r="E2">
+        <v>71.215854042206132</v>
+      </c>
+      <c r="F2">
+        <v>44.092848128381171</v>
+      </c>
+      <c r="G2">
+        <v>59.615701379262397</v>
+      </c>
+      <c r="H2">
+        <v>48.116795583299925</v>
+      </c>
+      <c r="I2">
+        <v>61.75168794189176</v>
+      </c>
+      <c r="J2">
+        <v>68.259114652653039</v>
+      </c>
+      <c r="K2">
+        <v>54.202309031398826</v>
+      </c>
+      <c r="L2">
+        <v>53.713198989942569</v>
+      </c>
+      <c r="M2">
+        <v>71.715047767811029</v>
+      </c>
+      <c r="N2">
         <v>59.895130354105632</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>48.282181340544462</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>58.747736700256731</v>
+      </c>
+      <c r="Q2">
+        <v>60.664973704884225</v>
+      </c>
+      <c r="R2">
+        <v>53.842668214240142</v>
+      </c>
+      <c r="T2">
+        <v>59.706493148595008</v>
+      </c>
+      <c r="U2">
+        <v>58.107826675214511</v>
+      </c>
+      <c r="V2">
+        <v>52.318807949461707</v>
+      </c>
+      <c r="W2">
+        <v>44.597899076626611</v>
+      </c>
+      <c r="X2">
+        <v>56.15692500918987</v>
+      </c>
+      <c r="Y2">
+        <v>60.415452076948156</v>
+      </c>
+      <c r="Z2">
+        <v>58.451208159870376</v>
+      </c>
+      <c r="AA2">
+        <v>75.857734937744738</v>
+      </c>
+      <c r="AB2">
+        <v>76.860241362387356</v>
+      </c>
+      <c r="AC2">
+        <v>50.942970623534833</v>
+      </c>
+      <c r="AD2">
+        <v>78.615305499050407</v>
+      </c>
+      <c r="AE2">
+        <v>51.156706541659304</v>
+      </c>
+      <c r="AF2">
+        <v>58.691901835560259</v>
+      </c>
+      <c r="AG2">
+        <v>52.997054196207074</v>
+      </c>
+      <c r="AH2">
+        <v>60.780191033641344</v>
+      </c>
+      <c r="AI2">
+        <v>77.937152754536129</v>
+      </c>
+      <c r="AJ2">
+        <v>54.442762004722432</v>
+      </c>
+      <c r="AK2">
+        <v>59.640732470082177</v>
+      </c>
+      <c r="AL2">
+        <v>69.942656638451467</v>
+      </c>
+      <c r="AM2">
         <v>62.786754089003175</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>51.396987585438829</v>
       </c>
-      <c r="F2">
-        <v>44.09284814040123</v>
-      </c>
-      <c r="G2">
-        <v>59.615701380050695</v>
-      </c>
-      <c r="H2">
-        <v>48.116795600400884</v>
-      </c>
-      <c r="I2">
-        <v>61.751687930801985</v>
-      </c>
-      <c r="J2">
-        <v>68.259114691307474</v>
-      </c>
-      <c r="K2">
-        <v>54.202309039032393</v>
-      </c>
-      <c r="L2">
-        <v>53.713199018781829</v>
-      </c>
-      <c r="M2">
-        <v>71.715047760128471</v>
-      </c>
-      <c r="N2">
-        <v>59.895130373021352</v>
-      </c>
-      <c r="O2">
-        <v>48.282181370234944</v>
-      </c>
-      <c r="P2">
-        <v>58.747736697098475</v>
-      </c>
-      <c r="Q2">
-        <v>60.664973722690831</v>
-      </c>
-      <c r="R2">
-        <v>53.842668235828633</v>
-      </c>
-      <c r="T2">
-        <v>59.706493142214576</v>
-      </c>
-      <c r="U2">
-        <v>58.107826696075037</v>
-      </c>
-      <c r="V2">
-        <v>52.318807979391131</v>
-      </c>
-      <c r="W2">
-        <v>44.597899118896272</v>
-      </c>
-      <c r="X2">
-        <v>56.156925030003038</v>
-      </c>
-      <c r="Y2">
-        <v>60.41545210006462</v>
-      </c>
-      <c r="Z2">
-        <v>58.451208175426871</v>
-      </c>
-      <c r="AA2">
-        <v>75.857735083625869</v>
-      </c>
-      <c r="AB2">
-        <v>76.860241411913748</v>
-      </c>
-      <c r="AC2">
-        <v>50.942970661480906</v>
-      </c>
-      <c r="AD2">
-        <v>78.615305557076439</v>
-      </c>
-      <c r="AE2">
-        <v>51.156706547190588</v>
-      </c>
-      <c r="AF2">
-        <v>58.691901864023798</v>
-      </c>
-      <c r="AG2">
-        <v>52.997054264441822</v>
-      </c>
-      <c r="AH2">
-        <v>60.780191062294335</v>
-      </c>
-      <c r="AI2">
-        <v>77.937152808474366</v>
-      </c>
-      <c r="AJ2">
-        <v>54.442762039918144</v>
-      </c>
-      <c r="AK2">
-        <v>59.640732491255584</v>
-      </c>
-      <c r="AL2">
-        <v>69.942656673563732</v>
-      </c>
-      <c r="AM2">
-        <v>62.786754117441745</v>
-      </c>
-      <c r="AN2">
-        <v>51.396987608538986</v>
-      </c>
       <c r="AO2">
-        <v>64.681694011306476</v>
+        <v>64.681693953785313</v>
       </c>
       <c r="AP2">
-        <v>67.416118184933978</v>
+        <v>67.416118161108713</v>
       </c>
       <c r="AQ2">
-        <v>56.412131453396974</v>
+        <v>56.412131397130395</v>
       </c>
       <c r="AR2">
-        <v>82.116167791165651</v>
+        <v>82.116167784791756</v>
       </c>
       <c r="AS2">
-        <v>70.646222266191458</v>
+        <v>70.646222184809744</v>
       </c>
       <c r="AT2">
-        <v>66.75338904017579</v>
+        <v>66.753389013883492</v>
       </c>
       <c r="AU2">
-        <v>50.867450148962305</v>
+        <v>50.867450157744237</v>
       </c>
       <c r="AV2">
-        <v>57.850377226829949</v>
+        <v>57.850377121195052</v>
       </c>
       <c r="AW2">
-        <v>55.057332708235386</v>
+        <v>55.057332691668826</v>
       </c>
       <c r="AX2">
-        <v>68.333911378611191</v>
+        <v>68.333911340235389</v>
       </c>
       <c r="AY2">
-        <v>66.664751862164749</v>
+        <v>66.664751833136648</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>67.626194217110012</v>
+      </c>
+      <c r="C3">
+        <v>60.879684412356873</v>
+      </c>
+      <c r="D3">
+        <v>57.710266711611816</v>
+      </c>
+      <c r="E3">
+        <v>71.325799261625406</v>
+      </c>
+      <c r="F3">
+        <v>42.399329956467639</v>
+      </c>
+      <c r="G3">
+        <v>60.412136048672508</v>
+      </c>
+      <c r="H3">
+        <v>44.371773139167225</v>
+      </c>
+      <c r="I3">
+        <v>61.292795352651112</v>
+      </c>
+      <c r="J3">
+        <v>73.637041566520622</v>
+      </c>
+      <c r="K3">
+        <v>64.5919682485424</v>
+      </c>
+      <c r="L3">
+        <v>57.530300621807264</v>
+      </c>
+      <c r="M3">
+        <v>62.74136649337148</v>
+      </c>
+      <c r="N3">
         <v>61.950761800214487</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>44.044568128126528</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>62.179181499015669</v>
+      </c>
+      <c r="Q3">
+        <v>54.187369095618294</v>
+      </c>
+      <c r="R3">
+        <v>47.089273951062118</v>
+      </c>
+      <c r="S3">
+        <v>73.168356374627493</v>
+      </c>
+      <c r="T3">
+        <v>63.26449335703078</v>
+      </c>
+      <c r="U3">
+        <v>61.349552442453913</v>
+      </c>
+      <c r="V3">
+        <v>55.088168730205254</v>
+      </c>
+      <c r="W3">
+        <v>48.185585823866049</v>
+      </c>
+      <c r="X3">
+        <v>49.850856279069596</v>
+      </c>
+      <c r="Y3">
+        <v>69.073816774153201</v>
+      </c>
+      <c r="Z3">
+        <v>64.452008126664253</v>
+      </c>
+      <c r="AA3">
+        <v>74.646890694398252</v>
+      </c>
+      <c r="AB3">
+        <v>71.453920806003907</v>
+      </c>
+      <c r="AC3">
+        <v>59.086160391312802</v>
+      </c>
+      <c r="AD3">
+        <v>77.468620940450222</v>
+      </c>
+      <c r="AE3">
+        <v>53.491137653360148</v>
+      </c>
+      <c r="AF3">
+        <v>63.768425503612065</v>
+      </c>
+      <c r="AG3">
+        <v>54.26477386480304</v>
+      </c>
+      <c r="AH3">
+        <v>71.061116641056572</v>
+      </c>
+      <c r="AI3">
+        <v>73.810287137366473</v>
+      </c>
+      <c r="AJ3">
+        <v>63.092969240766195</v>
+      </c>
+      <c r="AK3">
+        <v>67.466954699354531</v>
+      </c>
+      <c r="AL3">
+        <v>68.435016168014641</v>
+      </c>
+      <c r="AM3">
         <v>71.204113636332352</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>47.21481631296556</v>
       </c>
-      <c r="F3">
-        <v>42.399329982397035</v>
-      </c>
-      <c r="G3">
-        <v>60.412136064744637</v>
-      </c>
-      <c r="H3">
-        <v>44.371773152386716</v>
-      </c>
-      <c r="I3">
-        <v>61.292795363042295</v>
-      </c>
-      <c r="J3">
-        <v>73.637041608688818</v>
-      </c>
-      <c r="K3">
-        <v>64.59196827643288</v>
-      </c>
-      <c r="L3">
-        <v>57.530300649644424</v>
-      </c>
-      <c r="M3">
-        <v>62.741397435148691</v>
-      </c>
-      <c r="N3">
-        <v>61.950761817486651</v>
-      </c>
-      <c r="O3">
-        <v>44.04456815356842</v>
-      </c>
-      <c r="P3">
-        <v>62.179181527540713</v>
-      </c>
-      <c r="Q3">
-        <v>54.187369115574072</v>
-      </c>
-      <c r="R3">
-        <v>47.089273991315991</v>
-      </c>
-      <c r="S3">
-        <v>73.16835637744478</v>
-      </c>
-      <c r="T3">
-        <v>63.264493375508238</v>
-      </c>
-      <c r="U3">
-        <v>61.349552451775203</v>
-      </c>
-      <c r="V3">
-        <v>55.088168736341082</v>
-      </c>
-      <c r="W3">
-        <v>48.185585858787093</v>
-      </c>
-      <c r="X3">
-        <v>49.850856295612239</v>
-      </c>
-      <c r="Y3">
-        <v>69.073816805719346</v>
-      </c>
-      <c r="Z3">
-        <v>64.452008141498851</v>
-      </c>
-      <c r="AA3">
-        <v>74.646890672164091</v>
-      </c>
-      <c r="AB3">
-        <v>71.453920840906051</v>
-      </c>
-      <c r="AC3">
-        <v>59.086160394216357</v>
-      </c>
-      <c r="AD3">
-        <v>77.468620999083001</v>
-      </c>
-      <c r="AE3">
-        <v>53.491137670569117</v>
-      </c>
-      <c r="AF3">
-        <v>63.768425532995252</v>
-      </c>
-      <c r="AG3">
-        <v>54.264773868190296</v>
-      </c>
-      <c r="AH3">
-        <v>71.061116699658584</v>
-      </c>
-      <c r="AI3">
-        <v>73.810287206453168</v>
-      </c>
-      <c r="AJ3">
-        <v>63.092969268365238</v>
-      </c>
-      <c r="AK3">
-        <v>67.46695471829554</v>
-      </c>
-      <c r="AL3">
-        <v>68.435016190774675</v>
-      </c>
-      <c r="AM3">
-        <v>71.20411371425908</v>
-      </c>
-      <c r="AN3">
-        <v>47.214816359624002</v>
-      </c>
       <c r="AO3">
-        <v>70.74519988195334</v>
+        <v>70.745199851720272</v>
       </c>
       <c r="AP3">
-        <v>56.147826661183565</v>
+        <v>56.14782661786429</v>
       </c>
       <c r="AQ3">
-        <v>54.032820681671495</v>
+        <v>54.032820673687041</v>
       </c>
       <c r="AR3">
-        <v>83.586959734168971</v>
+        <v>83.586959727249905</v>
       </c>
       <c r="AS3">
-        <v>62.331549853908847</v>
+        <v>62.331549785199414</v>
       </c>
       <c r="AT3">
-        <v>64.8923300347344</v>
+        <v>64.892329979017916</v>
       </c>
       <c r="AU3">
-        <v>55.792975761332599</v>
+        <v>55.792975749377909</v>
       </c>
       <c r="AV3">
-        <v>52.307925701495634</v>
+        <v>52.307925610336376</v>
       </c>
       <c r="AW3">
-        <v>57.679756224858494</v>
+        <v>57.679756160760505</v>
       </c>
       <c r="AX3">
-        <v>60.09848394612731</v>
+        <v>60.098483897958978</v>
       </c>
       <c r="AY3">
-        <v>74.254665195689242</v>
+        <v>74.254665185821253</v>
       </c>
     </row>
   </sheetData>
